--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8187244000000007</v>
+        <v>0.7950339</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09130889999999781</v>
+        <v>0.09610840000000209</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8187244000000007</v>
+        <v>0.7950339</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09130889999999781</v>
+        <v>0.09610840000000209</v>
       </c>
     </row>
   </sheetData>

--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7950339</v>
+        <v>0.5674678999999969</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09610840000000209</v>
+        <v>0.06550889999999754</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7950339</v>
+        <v>0.5674678999999969</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09610840000000209</v>
+        <v>0.06550889999999754</v>
       </c>
     </row>
   </sheetData>

--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5674678999999969</v>
+        <v>0.6155512999999928</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06550889999999754</v>
+        <v>0.07431669999994028</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5674678999999969</v>
+        <v>0.6155512999999928</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.06550889999999754</v>
+        <v>0.07431669999994028</v>
       </c>
     </row>
   </sheetData>

--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6155512999999928</v>
+        <v>0.6011336999999912</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07431669999994028</v>
+        <v>0.07655060000001868</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6155512999999928</v>
+        <v>0.6011336999999912</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07431669999994028</v>
+        <v>0.07655060000001868</v>
       </c>
     </row>
   </sheetData>

--- a/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
+++ b/Uncertainties Dynamic planning under unexpected events/Figures/experiment34959/percentage0parallel_number3dynamic0/obj_recordpercentage0parallel_number3dynamic034959.xlsx
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6011336999999912</v>
+        <v>0.5202978000000016</v>
       </c>
     </row>
     <row r="3">
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07655060000001868</v>
+        <v>0.06341919999999845</v>
       </c>
     </row>
   </sheetData>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6011336999999912</v>
+        <v>0.5202978000000016</v>
       </c>
     </row>
     <row r="3">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07655060000001868</v>
+        <v>0.06341919999999845</v>
       </c>
     </row>
   </sheetData>
